--- a/datos_entrenamiento.xlsx
+++ b/datos_entrenamiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Universidad\hack_UDC\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Universidad\hack_UDC\otro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A46BD5-B7D0-4F4F-9B42-2B1EBD00F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F6D58C-964D-4FE9-B41E-B9424D80A333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Frase</t>
   </si>
@@ -75,7 +75,13 @@
     <t>cual es mi dia de mayor consumo</t>
   </si>
   <si>
-    <t>que me reconmiendas</t>
+    <t>muchas gracias</t>
+  </si>
+  <si>
+    <t>agradecimiento</t>
+  </si>
+  <si>
+    <t>que me recomiendas</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B5:B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -479,10 +485,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/datos_entrenamiento.xlsx
+++ b/datos_entrenamiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Universidad\hack_UDC\otro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F6D58C-964D-4FE9-B41E-B9424D80A333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B2ACFA-2ACC-420B-A2A0-DEA6D3D67C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
